--- a/webappvpc/modules.xlsx
+++ b/webappvpc/modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/GitHub/tabular-terraform/webappvpc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D28463-D18D-1042-8356-4E848124E08D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9B4AF-5E44-9144-9288-BCF7269CF172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2320" windowWidth="18600" windowHeight="11600" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="2320" windowWidth="18600" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modules-access" sheetId="69" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="providers" sheetId="70" r:id="rId7"/>
     <sheet name="versions" sheetId="71" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -397,10 +397,10 @@
     <t>var.profile-webappserver</t>
   </si>
   <si>
-    <t>"1.23.2"</t>
-  </si>
-  <si>
-    <t>"&gt;= 0.13.5"</t>
+    <t>"&gt;= 0.14.0"</t>
+  </si>
+  <si>
+    <t>"1.27.1"</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78119FB4-66A9-8F4A-B141-BA201351C21D}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2885,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC18C8-AF87-664F-AF35-E8887F771EE7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3045,7 +3045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B070A3B4-CA5D-EA45-8459-BC774810FE7F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3089,13 +3091,13 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
@@ -3110,13 +3112,13 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>82</v>
@@ -3133,13 +3135,13 @@
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>74</v>
@@ -3156,13 +3158,13 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>73</v>
@@ -3179,13 +3181,13 @@
         <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>72</v>
@@ -3202,13 +3204,13 @@
         <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>68</v>
